--- a/xlsx/a69_f15_bUPPachuca.xlsx
+++ b/xlsx/a69_f15_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -294,20 +294,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -321,6 +331,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -329,6 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,7 +656,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +671,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -660,38 +680,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -764,19 +784,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -813,30 +833,30 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2020</v>
       </c>
-      <c r="B8" s="6">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="B8" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="5">
-        <v>44114</v>
-      </c>
-      <c r="J8" s="5">
-        <v>44114</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="I8" s="4">
+        <v>44206</v>
+      </c>
+      <c r="J8" s="4">
+        <v>44206</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -851,7 +871,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D92">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
@@ -864,32 +884,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -903,7 +928,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G4" sqref="A4:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,22 +1012,22 @@
       <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="6" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I84">
       <formula1>Hidden_1_Tabla_4926688</formula1>
     </dataValidation>
   </dataValidations>
@@ -1014,17 +1039,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>61</v>
       </c>
     </row>

--- a/xlsx/a69_f15_bUPPachuca.xlsx
+++ b/xlsx/a69_f15_bUPPachuca.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP Solventación 1er Trimestre 21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Hidden_1" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabla_492668" sheetId="3" r:id="rId3"/>
-    <sheet name="Hidden_1_Tabla_492668" sheetId="4" r:id="rId4"/>
+    <sheet name="Hidden_2" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabla_492668" sheetId="4" r:id="rId4"/>
+    <sheet name="Hidden_1_Tabla_492668" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="Hidden_1_Tabla_4926688">Hidden_1_Tabla_492668!$A$1:$A$2</definedName>
-    <definedName name="Hidden_13">Hidden_1!$A$1:$A$5</definedName>
+    <definedName name="Hidden_1_Tabla_49266810">Hidden_1_Tabla_492668!$A$1:$A$2</definedName>
+    <definedName name="Hidden_13">Hidden_1!$A$1:$A$2</definedName>
+    <definedName name="Hidden_24">Hidden_2!$A$1:$A$5</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>52264</t>
   </si>
@@ -40,7 +42,7 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
-    <t>Subsidios, estímulos y apoyos_Padrón de beneficiarios de programas sociales</t>
+    <t>Padrón de beneficiarios de programas sociales</t>
   </si>
   <si>
     <t>a69_f15_b</t>
@@ -82,12 +84,18 @@
     <t>492670</t>
   </si>
   <si>
+    <t>561999</t>
+  </si>
+  <si>
     <t>492672</t>
   </si>
   <si>
     <t>492663</t>
   </si>
   <si>
+    <t>562000</t>
+  </si>
+  <si>
     <t>492668</t>
   </si>
   <si>
@@ -118,10 +126,16 @@
     <t>Fecha de término del periodo que se informa</t>
   </si>
   <si>
+    <t>Ámbito(catálogo): Local/Federal</t>
+  </si>
+  <si>
     <t>Tipo de programa (catálogo)</t>
   </si>
   <si>
     <t>Denominación del Programa</t>
+  </si>
+  <si>
+    <t>Denominación del subprograma, vertiente o modalidad a la que pertenece el beneficiario, en su caso</t>
   </si>
   <si>
     <t>Padrón de beneficiarios 
@@ -143,6 +157,12 @@
     <t>Nota</t>
   </si>
   <si>
+    <t>Federal</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
     <t>Programas de transferencia</t>
   </si>
   <si>
@@ -158,6 +178,9 @@
     <t>Programas mixtos</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>63207</t>
   </si>
   <si>
@@ -170,9 +193,15 @@
     <t>63210</t>
   </si>
   <si>
+    <t>71773</t>
+  </si>
+  <si>
     <t>63211</t>
   </si>
   <si>
+    <t>71772</t>
+  </si>
+  <si>
     <t>63212</t>
   </si>
   <si>
@@ -197,7 +226,13 @@
     <t>Denominación social</t>
   </si>
   <si>
+    <t xml:space="preserve">Fecha en que la persona se volvió beneficiaria del programa </t>
+  </si>
+  <si>
     <t>Monto, recurso, beneficio o apoyo (en dinero o en especie) otorgado</t>
+  </si>
+  <si>
+    <t>Monto en pesos del beneficio o apoyo en especie entregado</t>
   </si>
   <si>
     <t xml:space="preserve">Unidad territorial </t>
@@ -271,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -294,24 +329,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -322,20 +344,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -348,7 +367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,39 +395,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,232 +506,210 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="78.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -727,28 +723,34 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -782,87 +784,103 @@
       <c r="K5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="L5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="4">
-        <v>44206</v>
-      </c>
-      <c r="J8" s="4">
-        <v>44206</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>63</v>
+        <v>39</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="5">
+        <v>44298</v>
+      </c>
+      <c r="L8" s="5">
+        <v>44298</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A6:M6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -870,52 +888,35 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D92">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D108">
       <formula1>Hidden_13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E108">
+      <formula1>Hidden_24</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>38</v>
+      <c r="A1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>42</v>
+      <c r="A2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -925,11 +926,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="G4" sqref="A4:XFD23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -938,13 +975,15 @@
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -958,104 +997,117 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
       </c>
       <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I84">
-      <formula1>Hidden_1_Tabla_4926688</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K201">
+      <formula1>Hidden_1_Tabla_49266810</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>60</v>
+      <c r="A1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>61</v>
+      <c r="A2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f15_bUPPachuca.xlsx
+++ b/xlsx/a69_f15_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP Solventación 1er Trimestre 21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo. Bo. 1 UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,17 @@
     <sheet name="Hidden_1_Tabla_492668" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tabla_492668!$A$3:$L$100</definedName>
     <definedName name="Hidden_1_Tabla_49266810">Hidden_1_Tabla_492668!$A$1:$A$2</definedName>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$2</definedName>
     <definedName name="Hidden_24">Hidden_2!$A$1:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="305">
   <si>
     <t>52264</t>
   </si>
@@ -250,17 +251,707 @@
     <t>Masculino</t>
   </si>
   <si>
-    <t>Secretaria Administrativa (UPP)</t>
-  </si>
-  <si>
-    <t>De conformidad con las atribuciones conferidas en el Artículo 4 del Decreto publicado el 4 de febrero de 2008, que modifica diversas disposiciones del Diverso que abrogó al que creó a la Universidad Politécnica de Pachuca; no tiene bajo su responsabilidad el otorgar este tipo de Programas</t>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
+    <t>Becas de Representación Institucional</t>
+  </si>
+  <si>
+    <t>Becas Institucionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KATIA LUCERO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA YAQUELIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITZALI  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HANNIA SARAHÍ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALLE LAYSHA </t>
+  </si>
+  <si>
+    <t>ADALIEL DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARLA DAYANI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARÍA FERNANDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMARA VIRIDIANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANIA ESTEFANIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVID  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUBEN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERARDO JAVIER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARILY  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGERIO EZEQUIEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEMA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSIRIS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIL DANAE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOANA ANAHI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELA GUADALUPE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE JHOVANNI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOLILTZIN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARLA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAMELA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAUL AXEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDRA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HECTOR  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALONDRA AYLIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMÁN VALERIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYNTHIA JOCELYN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEIDA DANIELA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE ROBERTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCELIA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRICIA MONTSERRAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELDY PAULINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NISSI JEHIELI </t>
+  </si>
+  <si>
+    <t>MARIA DE LOURDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISAEL SEBASTIAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAYAN ALBERTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AURORA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALINE LIZETTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFRAIN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANIA FERNANDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAHIR JESÚS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANIA LIZBETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARINA ALEXANDRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA JULIE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITZEL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS ADOLFO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAROLINA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARANTXA MARIANNE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARMEN GABRIELA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRENDA ROXANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIDENCIO OBETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSEPH EVAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXA ESTEPHANIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JACOBO MARCIAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIAN GUADALUPE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEATRIZ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHONTHAL ALEJANDRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JENNIFER  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIANA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARANZAZU  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE RAUL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARLA ZERET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YESLY ARLETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KATYA AMAYRANI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALONDRA DENIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIO ALBERTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KATIA SARAHÍ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABNER  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSSETTE ALBERTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSCAR  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIN ANALID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIOLETA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVAN KAREL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREDY  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRENDA ELIZABETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUILLERMO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS AXEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO ISRAEL </t>
+  </si>
+  <si>
+    <t>MARGARITA DE JESÚS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSUÉ ESAÚ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN PABLO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALERIA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEONOR YURAIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIANA ESTEFANÍA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARMEN SEMIRAMIS </t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>ALAMILLA</t>
+  </si>
+  <si>
+    <t>ACOSTA</t>
+  </si>
+  <si>
+    <t>ALCÁNTARA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ALPIZAR</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>ANGELES</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>AVILA</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>ÁVILA</t>
+  </si>
+  <si>
+    <t>DÍAZ</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>BAÑOS</t>
+  </si>
+  <si>
+    <t>ACUÑA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>BELTRAN</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>BUSTOS</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>CABADA</t>
+  </si>
+  <si>
+    <t>FIGUEROA</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>CADENA</t>
+  </si>
+  <si>
+    <t>CAMPERO</t>
+  </si>
+  <si>
+    <t>YAMADA</t>
+  </si>
+  <si>
+    <t>CARBALLO</t>
+  </si>
+  <si>
+    <t>GALLOSO</t>
+  </si>
+  <si>
+    <t>CARMONA</t>
+  </si>
+  <si>
+    <t>HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
+    <t>PATINO</t>
+  </si>
+  <si>
+    <t>EUSEBIO</t>
+  </si>
+  <si>
+    <t>ESCAMILLA</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>GARCÍA</t>
+  </si>
+  <si>
+    <t>PEÑA</t>
+  </si>
+  <si>
+    <t>GÓMEZ</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>SILVA</t>
+  </si>
+  <si>
+    <t>GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>ISLAS</t>
+  </si>
+  <si>
+    <t>GRANADOS</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>PÉREZ</t>
+  </si>
+  <si>
+    <t>CHÁVEZ</t>
+  </si>
+  <si>
+    <t>CORTÉS</t>
+  </si>
+  <si>
+    <t>GALVAN</t>
+  </si>
+  <si>
+    <t>LOZANO</t>
+  </si>
+  <si>
+    <t>SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>TENORIO</t>
+  </si>
+  <si>
+    <t>HORTA</t>
+  </si>
+  <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
+    <t>PADILLA</t>
+  </si>
+  <si>
+    <t>JIMÉNEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>LECHUGA</t>
+  </si>
+  <si>
+    <t>LÓPEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>GODINEZ</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>BAENA</t>
+  </si>
+  <si>
+    <t>LUGO</t>
+  </si>
+  <si>
+    <t>ROSALES</t>
+  </si>
+  <si>
+    <t>MÁRQUEZ</t>
+  </si>
+  <si>
+    <t>RAMÍREZ</t>
+  </si>
+  <si>
+    <t>MATA</t>
+  </si>
+  <si>
+    <t>CALVA</t>
+  </si>
+  <si>
+    <t>MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>MOTA</t>
+  </si>
+  <si>
+    <t>BARRERA</t>
+  </si>
+  <si>
+    <t>NAVARRETE</t>
+  </si>
+  <si>
+    <t>JUÁREZ</t>
+  </si>
+  <si>
+    <t>NEGRETE</t>
+  </si>
+  <si>
+    <t>NEGRÓN</t>
+  </si>
+  <si>
+    <t>QUIIROZ</t>
+  </si>
+  <si>
+    <t>ORDAZ</t>
+  </si>
+  <si>
+    <t>ORTÍZ</t>
+  </si>
+  <si>
+    <t>CAMPUZANO</t>
+  </si>
+  <si>
+    <t>PINEDA</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>MALO</t>
+  </si>
+  <si>
+    <t>RINCÓN</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>PICHARDO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>ABARCA</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>ZAMORA</t>
+  </si>
+  <si>
+    <t>SALAS</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>REGNIER</t>
+  </si>
+  <si>
+    <t>SANTILLÁN</t>
+  </si>
+  <si>
+    <t>SOLTERO</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>SOSA</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>TÉLLEZ</t>
+  </si>
+  <si>
+    <t>TRIGUEROS</t>
+  </si>
+  <si>
+    <t>VALDIVIA</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>VÁZQUEZ</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>CAÑADA</t>
+  </si>
+  <si>
+    <t>VELÁZQUEZ</t>
+  </si>
+  <si>
+    <t>ROLDÁN</t>
+  </si>
+  <si>
+    <t>estudiantes</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/estados_presupuestales.php</t>
+  </si>
+  <si>
+    <t>Las tablas adyacentes, criterios e hipervinculos que se observan vacios , no los generó esta Institución para este trimestre a reportar.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -280,6 +971,40 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -306,7 +1031,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -329,11 +1054,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -356,6 +1104,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -368,7 +1144,8 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -649,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,14 +1437,14 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
     <col min="7" max="7" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="78.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.28515625" customWidth="1"/>
+    <col min="13" max="13" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -676,38 +1453,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -792,21 +1569,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -849,33 +1626,45 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="4">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+        <v>44377</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="J8" s="3" t="s">
         <v>73</v>
       </c>
       <c r="K8" s="5">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="L8" s="5">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>74</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -889,15 +1678,18 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D108">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E108">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8">
       <formula1>Hidden_24</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -964,9 +1756,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -978,12 +1772,12 @@
     <col min="6" max="6" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="72.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -1047,7 +1841,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1078,13 +1872,3410 @@
       <c r="J3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="14" t="s">
         <v>70</v>
       </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G4" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H4" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12">
+        <v>18</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G5" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H5" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12">
+        <v>19</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G6" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H6" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12">
+        <v>19</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G7" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H7" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12">
+        <v>20</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G8" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H8" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12">
+        <v>20</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G9" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H9" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12">
+        <v>20</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G10" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H10" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12">
+        <v>19</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G11" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H11" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12">
+        <v>19</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G12" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H12" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12">
+        <v>19</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G13" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H13" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12">
+        <v>20</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F14" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G14" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H14" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12">
+        <v>20</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G15" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H15" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12">
+        <v>20</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G16" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H16" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12">
+        <v>19</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G17" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H17" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12">
+        <v>18</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G18" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H18" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12">
+        <v>19</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G19" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H19" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12">
+        <v>19</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>1</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G20" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H20" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12">
+        <v>20</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F21" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G21" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H21" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12">
+        <v>20</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>1</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F22" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G22" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H22" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12">
+        <v>20</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G23" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H23" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12">
+        <v>19</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>1</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F24" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G24" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H24" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12">
+        <v>19</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>1</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F25" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G25" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H25" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12">
+        <v>19</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>1</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F26" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G26" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H26" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12">
+        <v>20</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F27" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G27" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H27" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12">
+        <v>20</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>1</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F28" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G28" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H28" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12">
+        <v>20</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>1</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F29" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G29" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H29" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12">
+        <v>19</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F30" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G30" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H30" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12">
+        <v>20</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>1</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F31" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G31" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H31" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12">
+        <v>19</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>1</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G32" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H32" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12">
+        <v>19</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>1</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F33" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G33" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H33" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12">
+        <v>19</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="16"/>
+    </row>
+    <row r="34" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>1</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G34" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H34" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12">
+        <v>20</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="16"/>
+    </row>
+    <row r="35" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>1</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F35" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G35" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H35" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12">
+        <v>20</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>1</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F36" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G36" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H36" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12">
+        <v>20</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="16"/>
+    </row>
+    <row r="37" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>1</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F37" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G37" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H37" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12">
+        <v>19</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>1</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F38" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G38" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H38" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12">
+        <v>19</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F39" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G39" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H39" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12">
+        <v>19</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>1</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F40" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G40" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H40" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12">
+        <v>19</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="16"/>
+    </row>
+    <row r="41" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>1</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F41" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G41" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H41" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12">
+        <v>20</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="16"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>1</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F42" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G42" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H42" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12">
+        <v>20</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="16"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>1</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F43" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G43" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H43" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12">
+        <v>20</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="16"/>
+    </row>
+    <row r="44" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>1</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F44" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G44" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H44" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12">
+        <v>19</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="16"/>
+    </row>
+    <row r="45" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>1</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F45" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G45" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H45" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12">
+        <v>19</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="16"/>
+    </row>
+    <row r="46" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>1</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F46" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G46" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H46" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12">
+        <v>19</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="16"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>1</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F47" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G47" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H47" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12">
+        <v>20</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="16"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F48" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G48" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H48" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12">
+        <v>19</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="16"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>1</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F49" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G49" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H49" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12">
+        <v>20</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="16"/>
+    </row>
+    <row r="50" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>1</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F50" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G50" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H50" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12">
+        <v>20</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="16"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>1</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F51" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G51" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H51" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12">
+        <v>20</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="16"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>1</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F52" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G52" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H52" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12">
+        <v>19</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="16"/>
+    </row>
+    <row r="53" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>1</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F53" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G53" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H53" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12">
+        <v>19</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="16"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>1</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F54" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G54" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H54" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12">
+        <v>19</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="16"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>1</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F55" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G55" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H55" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12">
+        <v>19</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="16"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>1</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F56" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G56" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H56" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12">
+        <v>20</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="16"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>1</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F57" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G57" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H57" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12">
+        <v>20</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="16"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>1</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F58" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G58" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H58" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12">
+        <v>20</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="16"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>1</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F59" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G59" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H59" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12">
+        <v>19</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="16"/>
+    </row>
+    <row r="60" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>1</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G60" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H60" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12">
+        <v>18</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="16"/>
+    </row>
+    <row r="61" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>1</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F61" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G61" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H61" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12">
+        <v>19</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="16"/>
+    </row>
+    <row r="62" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>1</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F62" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G62" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H62" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12">
+        <v>19</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="16"/>
+    </row>
+    <row r="63" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>1</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F63" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G63" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H63" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12">
+        <v>20</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="16"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>1</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F64" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G64" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H64" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12">
+        <v>20</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="16"/>
+    </row>
+    <row r="65" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>1</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F65" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G65" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H65" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12">
+        <v>20</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="16"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>1</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F66" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G66" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H66" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12">
+        <v>19</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="16"/>
+    </row>
+    <row r="67" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>1</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F67" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G67" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H67" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12">
+        <v>19</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="16"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>1</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F68" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G68" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H68" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12">
+        <v>19</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="16"/>
+    </row>
+    <row r="69" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>1</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F69" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G69" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H69" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12">
+        <v>20</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="16"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>1</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F70" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G70" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H70" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12">
+        <v>20</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="16"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>1</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F71" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G71" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H71" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12">
+        <v>20</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="16"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>1</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F72" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G72" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H72" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12">
+        <v>19</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="16"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>1</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F73" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G73" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H73" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12">
+        <v>20</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="16"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>1</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F74" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G74" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H74" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12">
+        <v>19</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="16"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>1</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F75" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G75" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H75" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12">
+        <v>19</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="16"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>1</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F76" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G76" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H76" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12">
+        <v>19</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="16"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>1</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F77" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G77" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H77" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12">
+        <v>20</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="16"/>
+    </row>
+    <row r="78" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>1</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F78" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G78" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H78" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12">
+        <v>20</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="16"/>
+    </row>
+    <row r="79" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>1</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F79" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G79" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H79" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12">
+        <v>20</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="16"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>1</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F80" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G80" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H80" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12">
+        <v>19</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="16"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>1</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F81" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G81" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H81" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12">
+        <v>19</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="16"/>
+    </row>
+    <row r="82" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>1</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F82" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G82" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H82" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12">
+        <v>19</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="16"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>1</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F83" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G83" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H83" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12">
+        <v>19</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="16"/>
+    </row>
+    <row r="84" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>1</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F84" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G84" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H84" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12">
+        <v>20</v>
+      </c>
+      <c r="K84" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="16"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>1</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F85" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G85" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H85" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12">
+        <v>20</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="16"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>1</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F86" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G86" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H86" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12">
+        <v>20</v>
+      </c>
+      <c r="K86" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="16"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>1</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F87" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G87" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H87" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12">
+        <v>19</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="16"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>1</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F88" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G88" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H88" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12">
+        <v>19</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="16"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <v>1</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F89" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G89" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H89" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12">
+        <v>19</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="16"/>
+    </row>
+    <row r="90" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>1</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F90" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G90" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H90" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12">
+        <v>20</v>
+      </c>
+      <c r="K90" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="16"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>1</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F91" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G91" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H91" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12">
+        <v>19</v>
+      </c>
+      <c r="K91" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="16"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>1</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F92" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G92" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H92" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12">
+        <v>19</v>
+      </c>
+      <c r="K92" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="16"/>
+    </row>
+    <row r="93" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>1</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F93" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G93" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H93" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12">
+        <v>20</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="16"/>
+    </row>
+    <row r="94" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>1</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F94" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G94" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H94" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12">
+        <v>20</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="16"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>1</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F95" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G95" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H95" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12">
+        <v>20</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="16"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>1</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F96" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G96" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H96" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12">
+        <v>19</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="16"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <v>1</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F97" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G97" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H97" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12">
+        <v>19</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="16"/>
+    </row>
+    <row r="98" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <v>1</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F98" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G98" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H98" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12">
+        <v>19</v>
+      </c>
+      <c r="K98" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="16"/>
+    </row>
+    <row r="99" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>1</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F99" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G99" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H99" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12">
+        <v>20</v>
+      </c>
+      <c r="K99" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="16"/>
+    </row>
+    <row r="100" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>1</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F100" s="18">
+        <v>44330</v>
+      </c>
+      <c r="G100" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="H100" s="12">
+        <v>115.4</v>
+      </c>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12">
+        <v>20</v>
+      </c>
+      <c r="K100" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K100">
       <formula1>Hidden_1_Tabla_49266810</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f15_bUPPachuca.xlsx
+++ b/xlsx/a69_f15_bUPPachuca.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Vo. Bo. 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5235"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -273,19 +273,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -306,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -329,22 +321,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -352,17 +333,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -651,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +647,7 @@
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.42578125" customWidth="1"/>
+    <col min="13" max="13" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -678,38 +656,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -794,21 +772,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -851,30 +829,30 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:13" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2021</v>
       </c>
-      <c r="B8" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44469</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="6" t="s">
+      <c r="B8" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="4">
-        <v>44480</v>
-      </c>
-      <c r="L8" s="4">
-        <v>44480</v>
+      <c r="K8" s="3">
+        <v>44571</v>
+      </c>
+      <c r="L8" s="3">
+        <v>44571</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>73</v>
@@ -891,10 +869,10 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D44">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D72">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E44">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E72">
       <formula1>Hidden_24</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f15_bUPPachuca.xlsx
+++ b/xlsx/a69_f15_bUPPachuca.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Vo. Bo. 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\1er Trimestre 2022\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -250,17 +250,17 @@
     <t>Masculino</t>
   </si>
   <si>
-    <t>Debido a contingencia por COVID-19, no se han tenido clases presenciales por el Programa Mi Escuela en Casa. Por las características de las becas Institucionales, se otorgarán cuando las y los estudiantes regresen a la nueva normalidad.</t>
-  </si>
-  <si>
     <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
+    <t>Debido a contingencia por COVID-19, el regreso a clases ha sido escalonado, por las características de las becas Institucionales, se otorgarán cuando todos las y los estudiantes regresen a clases presenciales, existiendo en la institución 2 tipos de becas: Alimenticia y De Representación Institucional de acuerdo a las reglas de operación publicadas el el POEH el día 28-feb-22.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -273,11 +273,19 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -325,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -333,20 +341,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +662,7 @@
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.7109375" customWidth="1"/>
+    <col min="13" max="13" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -656,38 +671,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -772,21 +787,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -829,33 +844,33 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44470</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
+    <row r="8" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44651</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="4">
+        <v>44659</v>
+      </c>
+      <c r="L8" s="4">
+        <v>44659</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="K8" s="3">
-        <v>44571</v>
-      </c>
-      <c r="L8" s="3">
-        <v>44571</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -869,15 +884,15 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D72">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D57">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E72">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E57">
       <formula1>Hidden_24</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f15_bUPPachuca.xlsx
+++ b/xlsx/a69_f15_bUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\1er Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -253,7 +248,7 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>Debido a contingencia por COVID-19, el regreso a clases ha sido escalonado, por las características de las becas Institucionales, se otorgarán cuando todos las y los estudiantes regresen a clases presenciales, existiendo en la institución 2 tipos de becas: Alimenticia y De Representación Institucional de acuerdo a las reglas de operación publicadas el el POEH el día 28-feb-22.</t>
+    <t>Debido a contingencia por COVID-19, el regreso a clases no ha sido del todo presencial, por las características de las becas Institucionales, se otorgarán cuando todas las y los estudiantes regresen a clases presenciales.</t>
   </si>
 </sst>
 </file>
@@ -286,6 +281,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -306,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -329,6 +325,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -347,16 +352,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -390,39 +395,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,142 +506,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -644,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +691,7 @@
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="61.7109375" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -671,33 +700,33 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
@@ -787,21 +816,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -844,15 +873,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -860,16 +889,16 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>73</v>
       </c>
       <c r="K8" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="L8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="M8" s="5" t="s">
+        <v>44753</v>
+      </c>
+      <c r="M8" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -884,15 +913,14 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D57">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D45">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E57">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E45">
       <formula1>Hidden_24</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f15_bUPPachuca.xlsx
+++ b/xlsx/a69_f15_bUPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sala5\Documents\UPP Solvetacion de Observaciones 1er  Vo. Bo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="329">
   <si>
     <t>52264</t>
   </si>
@@ -245,17 +250,779 @@
     <t>Masculino</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>Debido a contingencia por COVID-19, el regreso a clases no ha sido del todo presencial, por las características de las becas Institucionales, se otorgarán cuando todas las y los estudiantes regresen a clases presenciales.</t>
+    <t>Área de Becas (UPP)</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>Becas Miguel Hidalgo</t>
+  </si>
+  <si>
+    <t>Becas Miguel Hidalgo de Educación Superior</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/15/Acta%20BMH_Aceptados.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Eduardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uribe </t>
+  </si>
+  <si>
+    <t>Montiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Pablo </t>
+  </si>
+  <si>
+    <t>Elizondo</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynthia Bernardeth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muñoz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mogica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodriguez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blanca Estela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hernandez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponce </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanessa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montiel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenin Arturo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerrero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chavez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier Missael </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubio </t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wendy Xanhat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zarate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segovia </t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espinosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcantara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angeles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eros Adan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garcia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emilsen Danae </t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanesa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samperio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edson Aitor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mara Velia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambrano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orozco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirell Fernanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheccid Yadira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contreras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Abraham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johansen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alondra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Daniel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nava </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jennifer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avalos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yahir Emilio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zamora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendoza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Antonio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trigueros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monzalvo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velazquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campoy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Daniel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zapata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gutierrez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edith </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resendiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik Martin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alarcon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavel Fernando </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lopez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valderrabano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Alberto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenda Ximena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espinoza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Fernando </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villasana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela Michelle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus Alejandro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguilera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana Aide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallegos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geronimo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryan Stive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenda Vianney </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valdivia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanchez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela Rubi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariscal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uriostegui </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saira Gabriela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibarra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emanuel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arteaga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana Patricia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzalez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessica Elizabeth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rangel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrasco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Fernanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaparro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Angel </t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus Eduardo </t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristy Nataly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valdes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treviño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zurisadai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanaid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villavicencio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oviedo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aldair </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villeda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Cesar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Jessica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escorza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aldo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenda Guadalupe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aranda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vigueras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blancas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xochitl Analy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reyes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Uriel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Enrique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Armando </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvarado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geraldine Ariadna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baños </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan Karel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abigail Yarazeth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agelica Maria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trejo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salgado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Rodolfo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karla Esmeralda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reyna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angelica Lizeth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salazar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bautista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Pablo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Lulie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erika Pamela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrigal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iside </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferreira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paola Lucero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monroy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leilani Belisama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldonado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dacil de Maria </t>
+  </si>
+  <si>
+    <t>Araujo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lechuga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Beatriz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tania Fernanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pamela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eusebio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escamilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beldy Paulina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nissi Jehieli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tania Estefania </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerardo Ivan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tavera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon David </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jimenez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maranto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vazquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villegas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beltan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizeth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orduña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenda Roxana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricia Monserrat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karla Dayani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cielop Guadalupe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marissa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramirez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almaraz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moctezuma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oswaldo Didier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regina Miroslava </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana Leticia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azuara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castañeda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abygail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Killian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paola de Jesus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuritzy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortega </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaritzi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peralta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aldo Otilio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isael </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Alejandro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaspar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Axel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soletro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campos </t>
+  </si>
+  <si>
+    <t>Itzel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Alberto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Araoz </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -279,6 +1046,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -335,10 +1110,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -353,22 +1129,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,7 +1209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,7 +1244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:M6"/>
+    <sheetView topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +1469,7 @@
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="89.28515625" customWidth="1"/>
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
@@ -700,38 +1482,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -816,21 +1598,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -873,34 +1655,4412 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="4">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+        <v>44834</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="J8" s="5" t="s">
         <v>73</v>
       </c>
       <c r="K8" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="L8" s="4">
-        <v>44753</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>74</v>
-      </c>
+        <v>44844</v>
+      </c>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L9" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L10" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L11" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L12" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L13" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L14" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L15" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="3">
+        <v>9</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L16" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L17" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="3">
+        <v>11</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L18" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="3">
+        <v>12</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L19" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="3">
+        <v>13</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L20" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="3">
+        <v>14</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L21" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="3">
+        <v>15</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L22" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="3">
+        <v>16</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L23" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C24" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="3">
+        <v>17</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L24" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C25" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="3">
+        <v>18</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L25" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C26" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="3">
+        <v>19</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L26" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C27" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="3">
+        <v>20</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L27" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C28" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="3">
+        <v>21</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L28" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C29" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="3">
+        <v>22</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L29" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C30" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="3">
+        <v>23</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L30" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B31" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C31" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="3">
+        <v>24</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L31" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C32" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="3">
+        <v>25</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L32" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C33" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="3">
+        <v>26</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L33" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C34" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="3">
+        <v>27</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L34" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C35" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="3">
+        <v>28</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L35" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C36" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="3">
+        <v>29</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L36" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B37" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C37" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="3">
+        <v>30</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L37" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C38" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="3">
+        <v>31</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L38" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B39" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C39" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="3">
+        <v>32</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L39" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B40" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C40" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="3">
+        <v>33</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L40" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B41" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C41" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="3">
+        <v>34</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L41" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B42" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C42" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="3">
+        <v>35</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L42" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B43" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C43" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="3">
+        <v>36</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L43" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B44" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C44" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="3">
+        <v>37</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L44" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B45" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C45" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="3">
+        <v>38</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L45" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B46" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C46" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="3">
+        <v>39</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L46" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B47" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C47" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="3">
+        <v>40</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K47" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L47" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B48" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C48" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="3">
+        <v>41</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L48" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B49" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C49" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="3">
+        <v>42</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L49" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B50" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C50" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="3">
+        <v>43</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L50" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B51" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C51" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" s="3">
+        <v>44</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L51" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B52" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C52" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="3">
+        <v>45</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L52" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B53" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C53" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="3">
+        <v>46</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L53" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B54" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C54" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" s="3">
+        <v>47</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L54" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B55" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C55" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="3">
+        <v>48</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K55" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L55" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M55" s="7"/>
+    </row>
+    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B56" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C56" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="3">
+        <v>49</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K56" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L56" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B57" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C57" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="3">
+        <v>50</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K57" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L57" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B58" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C58" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="3">
+        <v>51</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K58" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L58" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M58" s="7"/>
+    </row>
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B59" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C59" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="3">
+        <v>52</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K59" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L59" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B60" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C60" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" s="3">
+        <v>53</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K60" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L60" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M60" s="7"/>
+    </row>
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B61" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C61" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" s="3">
+        <v>54</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K61" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L61" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M61" s="7"/>
+    </row>
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B62" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C62" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" s="3">
+        <v>55</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K62" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L62" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M62" s="7"/>
+    </row>
+    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B63" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C63" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" s="3">
+        <v>56</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K63" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L63" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M63" s="7"/>
+    </row>
+    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B64" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C64" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="3">
+        <v>57</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K64" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L64" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M64" s="7"/>
+    </row>
+    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B65" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C65" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" s="3">
+        <v>58</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K65" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L65" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M65" s="7"/>
+    </row>
+    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B66" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C66" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" s="3">
+        <v>59</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K66" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L66" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M66" s="7"/>
+    </row>
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B67" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C67" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" s="3">
+        <v>60</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K67" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L67" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M67" s="7"/>
+    </row>
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B68" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C68" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" s="3">
+        <v>61</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K68" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L68" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M68" s="7"/>
+    </row>
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B69" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C69" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" s="3">
+        <v>62</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K69" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L69" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M69" s="7"/>
+    </row>
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B70" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C70" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" s="3">
+        <v>63</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K70" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L70" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M70" s="7"/>
+    </row>
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B71" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C71" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" s="3">
+        <v>64</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K71" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L71" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M71" s="7"/>
+    </row>
+    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B72" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C72" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" s="3">
+        <v>65</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K72" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L72" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M72" s="7"/>
+    </row>
+    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B73" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C73" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" s="3">
+        <v>66</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K73" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L73" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M73" s="7"/>
+    </row>
+    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B74" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C74" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H74" s="3">
+        <v>67</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K74" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L74" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M74" s="7"/>
+    </row>
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B75" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C75" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H75" s="3">
+        <v>68</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K75" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L75" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M75" s="7"/>
+    </row>
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B76" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C76" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H76" s="3">
+        <v>69</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K76" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L76" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M76" s="7"/>
+    </row>
+    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B77" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C77" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" s="3">
+        <v>70</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K77" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L77" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M77" s="7"/>
+    </row>
+    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B78" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C78" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" s="3">
+        <v>71</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K78" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L78" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M78" s="7"/>
+    </row>
+    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B79" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C79" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" s="3">
+        <v>72</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K79" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L79" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M79" s="7"/>
+    </row>
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B80" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C80" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80" s="3">
+        <v>73</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K80" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L80" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M80" s="7"/>
+    </row>
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B81" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C81" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H81" s="3">
+        <v>74</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K81" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L81" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M81" s="7"/>
+    </row>
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B82" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C82" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H82" s="3">
+        <v>75</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K82" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L82" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M82" s="7"/>
+    </row>
+    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B83" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C83" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" s="3">
+        <v>76</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K83" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L83" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M83" s="7"/>
+    </row>
+    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B84" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C84" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" s="3">
+        <v>77</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K84" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L84" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M84" s="7"/>
+    </row>
+    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B85" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C85" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H85" s="3">
+        <v>78</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K85" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L85" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M85" s="7"/>
+    </row>
+    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B86" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C86" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H86" s="3">
+        <v>79</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K86" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L86" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M86" s="7"/>
+    </row>
+    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B87" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C87" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H87" s="3">
+        <v>80</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K87" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L87" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M87" s="7"/>
+    </row>
+    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B88" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C88" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H88" s="3">
+        <v>81</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K88" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L88" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M88" s="7"/>
+    </row>
+    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B89" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C89" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H89" s="3">
+        <v>82</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K89" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L89" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M89" s="7"/>
+    </row>
+    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B90" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C90" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H90" s="3">
+        <v>83</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K90" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L90" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M90" s="7"/>
+    </row>
+    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B91" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C91" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" s="3">
+        <v>84</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K91" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L91" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M91" s="7"/>
+    </row>
+    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B92" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C92" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H92" s="3">
+        <v>85</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K92" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L92" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M92" s="7"/>
+    </row>
+    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B93" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C93" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H93" s="3">
+        <v>86</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K93" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L93" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M93" s="7"/>
+    </row>
+    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B94" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C94" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" s="3">
+        <v>87</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K94" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L94" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M94" s="7"/>
+    </row>
+    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C95" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" s="3">
+        <v>88</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K95" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L95" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M95" s="7"/>
+    </row>
+    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B96" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C96" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H96" s="3">
+        <v>89</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K96" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L96" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M96" s="7"/>
+    </row>
+    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B97" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C97" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H97" s="3">
+        <v>90</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K97" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L97" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M97" s="7"/>
+    </row>
+    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B98" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C98" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" s="3">
+        <v>91</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K98" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L98" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M98" s="7"/>
+    </row>
+    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B99" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C99" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H99" s="3">
+        <v>92</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K99" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L99" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M99" s="7"/>
+    </row>
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B100" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C100" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H100" s="3">
+        <v>93</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K100" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L100" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M100" s="7"/>
+    </row>
+    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B101" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C101" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H101" s="3">
+        <v>94</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K101" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L101" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M101" s="7"/>
+    </row>
+    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B102" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C102" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" s="3">
+        <v>95</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K102" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L102" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M102" s="7"/>
+    </row>
+    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B103" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C103" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" s="3">
+        <v>96</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K103" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L103" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M103" s="7"/>
+    </row>
+    <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B104" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C104" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H104" s="3">
+        <v>97</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K104" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L104" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M104" s="7"/>
+    </row>
+    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B105" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C105" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H105" s="3">
+        <v>98</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K105" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L105" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M105" s="7"/>
+    </row>
+    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B106" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C106" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H106" s="3">
+        <v>99</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K106" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L106" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M106" s="7"/>
+    </row>
+    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B107" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C107" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H107" s="3">
+        <v>100</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K107" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L107" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M107" s="7"/>
+    </row>
+    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B108" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C108" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H108" s="3">
+        <v>101</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K108" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L108" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M108" s="7"/>
+    </row>
+    <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B109" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C109" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H109" s="3">
+        <v>102</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K109" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L109" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M109" s="7"/>
+    </row>
+    <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B110" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C110" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H110" s="3">
+        <v>103</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K110" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L110" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M110" s="7"/>
+    </row>
+    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B111" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C111" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H111" s="3">
+        <v>104</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K111" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L111" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M111" s="7"/>
+    </row>
+    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B112" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C112" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" s="3">
+        <v>105</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K112" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L112" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M112" s="7"/>
+    </row>
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B113" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C113" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H113" s="3">
+        <v>106</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K113" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L113" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M113" s="7"/>
+    </row>
+    <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B114" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C114" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H114" s="3">
+        <v>107</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K114" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L114" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M114" s="7"/>
+    </row>
+    <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B115" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C115" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H115" s="3">
+        <v>108</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K115" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L115" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M115" s="7"/>
+    </row>
+    <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B116" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C116" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H116" s="3">
+        <v>109</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K116" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L116" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M116" s="7"/>
+    </row>
+    <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B117" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C117" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H117" s="3">
+        <v>110</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K117" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L117" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M117" s="7"/>
+    </row>
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B118" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C118" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H118" s="3">
+        <v>111</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K118" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L118" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M118" s="7"/>
+    </row>
+    <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B119" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C119" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H119" s="3">
+        <v>112</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K119" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L119" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M119" s="7"/>
+    </row>
+    <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B120" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C120" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" s="3">
+        <v>113</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K120" s="4">
+        <v>44844</v>
+      </c>
+      <c r="L120" s="4">
+        <v>44844</v>
+      </c>
+      <c r="M120" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -913,13 +6073,17 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D45">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D120">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E45">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E120">
       <formula1>Hidden_24</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1"/>
+    <hyperlink ref="I9:I120" r:id="rId2" display="http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/15/Acta%20BMH_Aceptados.pdf"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -928,7 +6092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -951,7 +6117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -987,14 +6155,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -1103,6 +6273,3735 @@
       </c>
       <c r="K3" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G4" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="3">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G5" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="3">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="3">
+        <v>22</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G7" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="3">
+        <v>22</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G8" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="3">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="3">
+        <v>22</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="3">
+        <v>22</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G11" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="3">
+        <v>22</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="3">
+        <v>22</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G13" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H13" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="3">
+        <v>22</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G14" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="3">
+        <v>22</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="3">
+        <v>22</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G16" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H16" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="3">
+        <v>22</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G17" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="3">
+        <v>22</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G18" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="3">
+        <v>22</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G19" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H19" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="3">
+        <v>23</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="3">
+        <v>22</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="3">
+        <v>22</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="3">
+        <v>22</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G23" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="3">
+        <v>22</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="3">
+        <v>22</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G25" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H25" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="3">
+        <v>22</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G26" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="3">
+        <v>22</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G27" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="3">
+        <v>22</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G28" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H28" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="3">
+        <v>22</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G29" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="3">
+        <v>22</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G30" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H30" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="3">
+        <v>22</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G31" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H31" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="3">
+        <v>22</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" s="3">
+        <v>22</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="3">
+        <v>22</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G34" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H34" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="3">
+        <v>22</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G35" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="3">
+        <v>22</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G36" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H36" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="3">
+        <v>22</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G37" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H37" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="3">
+        <v>22</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G38" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H38" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38" s="3">
+        <v>22</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G39" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H39" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" s="3">
+        <v>22</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G40" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H40" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="3">
+        <v>22</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G41" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" s="3">
+        <v>22</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G42" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="3">
+        <v>22</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G43" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" s="3">
+        <v>22</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G44" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="3">
+        <v>22</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G45" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J45" s="3">
+        <v>23</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46" s="3">
+        <v>23</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="3">
+        <v>23</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" s="3">
+        <v>23</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G49" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J49" s="3">
+        <v>23</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G50" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H50" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="3">
+        <v>22</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G51" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H51" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="3">
+        <v>22</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="3">
+        <v>22</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G53" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H53" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J53" s="3">
+        <v>22</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G54" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" s="3">
+        <v>22</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G55" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H55" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" s="3">
+        <v>22</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G56" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H56" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" s="3">
+        <v>22</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G57" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" s="3">
+        <v>22</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="3">
+        <v>22</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="3">
+        <v>22</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G60" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" s="3">
+        <v>22</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61" s="3">
+        <v>22</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G62" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" s="3">
+        <v>22</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G63" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H63" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J63" s="3">
+        <v>22</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G64" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H64" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J64" s="3">
+        <v>22</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G65" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H65" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" s="3">
+        <v>22</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G66" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J66" s="3">
+        <v>22</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G67" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H67" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J67" s="3">
+        <v>25</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>65</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G68" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H68" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" s="3">
+        <v>22</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G69" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H69" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J69" s="3">
+        <v>22</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G70" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H70" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J70" s="3">
+        <v>22</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G71" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H71" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J71" s="3">
+        <v>22</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G72" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J72" s="3">
+        <v>22</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G73" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H73" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J73" s="3">
+        <v>22</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G74" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H74" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J74" s="3">
+        <v>22</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G75" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H75" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75" s="3">
+        <v>22</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G76" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J76" s="3">
+        <v>22</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G77" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H77" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J77" s="3">
+        <v>22</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G78" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H78" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J78" s="3">
+        <v>22</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G79" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H79" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J79" s="3">
+        <v>22</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>77</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G80" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H80" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J80" s="3">
+        <v>22</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G81" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J81" s="3">
+        <v>22</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G82" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H82" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J82" s="3">
+        <v>22</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G83" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J83" s="3">
+        <v>22</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G84" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H84" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J84" s="3">
+        <v>22</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G85" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H85" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J85" s="3">
+        <v>22</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G86" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H86" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J86" s="3">
+        <v>22</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G87" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H87" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J87" s="3">
+        <v>22</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>85</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G88" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H88" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J88" s="3">
+        <v>22</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G89" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J89" s="3">
+        <v>22</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G90" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H90" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J90" s="3">
+        <v>22</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G91" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J91" s="3">
+        <v>22</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>89</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G92" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H92" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J92" s="3">
+        <v>22</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>90</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G93" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H93" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J93" s="3">
+        <v>22</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>91</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G94" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J94" s="3">
+        <v>22</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>92</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G95" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H95" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J95" s="3">
+        <v>22</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>93</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G96" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J96" s="3">
+        <v>22</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>94</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G97" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H97" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J97" s="3">
+        <v>22</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G98" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H98" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J98" s="3">
+        <v>22</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G99" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H99" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J99" s="3">
+        <v>22</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G100" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J100" s="3">
+        <v>22</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G101" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J101" s="3">
+        <v>22</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G102" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J102" s="3">
+        <v>22</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>100</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G103" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H103" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J103" s="3">
+        <v>22</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>101</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G104" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H104" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J104" s="3">
+        <v>22</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>102</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G105" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H105" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J105" s="3">
+        <v>22</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>103</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G106" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H106" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J106" s="3">
+        <v>22</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>104</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G107" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H107" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J107" s="3">
+        <v>22</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>105</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G108" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H108" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J108" s="3">
+        <v>22</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>106</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G109" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H109" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J109" s="3">
+        <v>22</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>107</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G110" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H110" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J110" s="3">
+        <v>22</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>108</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G111" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H111" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J111" s="3">
+        <v>22</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>109</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G112" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H112" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J112" s="3">
+        <v>22</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>110</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H113" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J113" s="3">
+        <v>22</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>111</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G114" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H114" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J114" s="3">
+        <v>22</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>112</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G115" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H115" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J115" s="3">
+        <v>22</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>113</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="4">
+        <v>44806</v>
+      </c>
+      <c r="G116" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H116" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J116" s="3">
+        <v>22</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f15_bUPPachuca.xlsx
+++ b/xlsx/a69_f15_bUPPachuca.xlsx
@@ -476,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -499,11 +499,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -529,11 +538,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -543,6 +547,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,7 +866,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,38 +892,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -993,21 +1008,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1334,7 +1349,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1369,22 +1384,22 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <v>45014</v>
       </c>
       <c r="G5" s="8">
@@ -1404,22 +1419,22 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>45014</v>
       </c>
       <c r="G6" s="8">
@@ -1439,22 +1454,22 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>45014</v>
       </c>
       <c r="G7" s="8">
@@ -1474,22 +1489,22 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="14">
         <v>2</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>45014</v>
       </c>
       <c r="G8" s="8">
@@ -1509,22 +1524,22 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="14">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <v>45014</v>
       </c>
       <c r="G9" s="8">
@@ -1544,22 +1559,22 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="14">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>45014</v>
       </c>
       <c r="G10" s="8">
@@ -1579,22 +1594,22 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>45014</v>
       </c>
       <c r="G11" s="8">
@@ -1614,22 +1629,22 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="14">
         <v>2</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <v>45014</v>
       </c>
       <c r="G12" s="8">
@@ -1649,22 +1664,22 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="14">
         <v>2</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="12">
         <v>45014</v>
       </c>
       <c r="G13" s="8">
@@ -1684,22 +1699,22 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="14">
         <v>2</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="12">
         <v>45014</v>
       </c>
       <c r="G14" s="8">
@@ -1719,22 +1734,22 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="12">
         <v>45014</v>
       </c>
       <c r="G15" s="8">
@@ -1754,22 +1769,22 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="14">
         <v>2</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="12">
         <v>45014</v>
       </c>
       <c r="G16" s="8">
@@ -1789,22 +1804,22 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="14">
         <v>2</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="12">
         <v>45014</v>
       </c>
       <c r="G17" s="8">
@@ -1824,22 +1839,22 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="14">
         <v>2</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="12">
         <v>45014</v>
       </c>
       <c r="G18" s="8">
@@ -1859,7 +1874,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="13">
         <v>2</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1894,7 +1909,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="13">
         <v>2</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1929,7 +1944,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="13">
         <v>2</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1964,7 +1979,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="13">
         <v>2</v>
       </c>
       <c r="B22" s="9" t="s">
